--- a/HstmAssignmentFramework/src/main/java/com/hstm/assignment/testdata/StudentData.xlsx
+++ b/HstmAssignmentFramework/src/main/java/com/hstm/assignment/testdata/StudentData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>UserName</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>Hazel</t>
+  </si>
+  <si>
+    <t>karelle.ebert</t>
+  </si>
+  <si>
+    <t>Homenick</t>
+  </si>
+  <si>
+    <t>Anthony</t>
   </si>
 </sst>
 </file>
@@ -368,8 +377,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.90625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="13.453125" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="11.90625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.453125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -385,13 +394,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
